--- a/data/Map131.xlsx
+++ b/data/Map131.xlsx
@@ -499,7 +499,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,198 +507,315 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>

--- a/data/Map131.xlsx
+++ b/data/Map131.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D6B2A-DEA8-4E00-AC79-F04E2FDBEC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>自動実行</t>
   </si>
@@ -161,22 +167,148 @@
   </si>
   <si>
     <t>梯子</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;So you said this used to be a rich man's mansion-?
+Why would there be a dungeon here if that's the case?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Is that so?
+Why's that?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;So you were killing time...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Is that true?
+I don't remember too much about my past.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;But anyway, what happened next?
+How did you break out of your cage?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;That's my Lily! You're so strong-♥
+That's so amazing-!
+I want to seduce a guard and break out of jail too!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Seduction sounds way more fun though.
+Were you all like, 'Ahhhn♥ Ooooh♥'?
+Super sexy-.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ahaaaaan♥ Mmmmmmm♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Such cute stripes-♥
+What's a prison uniform?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Eh?
+You got it just like that...
+I feel like I understand even less...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;What are you talking about?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;How does that work...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Actually, I got thrown in here too.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Some human was looking for succubi, so I let them catch me.
+I had some time to kill.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Come to think of it, Shina was also captured and brought here.
+So were you also brought here?
+Slimes aren't commonly found around here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Oh, I seduced the guard...
+You know, my old go-to.
+I lured him in, and I raped him.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Then, after that
+I took over the entire mansion♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You could just squeeze through the bars.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You're kidding, right?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Oh my, if it isn't a prison uniform.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;It's perfect.
+Let's make a semen slave wear it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;It ties the whole dungeon scene together.
+Humans are simple creatures. You put them in this
+outfit, it will crush their spirit.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Striped clothes will turn anybody into a masochist.
+Just like a masochistic zebra, getting eaten by a lion.
+Does that make sense?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Haah...
+(Perhaps it's not only humans whose feelings change
+depending on their environment...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Why would we put it on a semen slave?
+I found it first.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I don't get it, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Zebras are masochists, nyaan!
+Zebras have stripes!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Oh shit, nya!
+I need to take off the clothes before I turn into a zebra, nyan!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Check out these stripy clothes, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;By putting them in clothes that signify that they're 'prisoners',
+they'll shift their own mindset, and believe that they're 'objects'.
+A person's environment can influence their heart and mind.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Yep, that makes more sense.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,28 +316,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -495,19 +640,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -523,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -531,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -539,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -547,263 +694,359 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -811,7 +1054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -820,17 +1063,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>